--- a/qPCR data for cooperativity.xlsx
+++ b/qPCR data for cooperativity.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houst\Box\Marras lab shared drive\James\Meysam first paper\qpcr data to test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0738788D-862C-44D8-BF60-B0D62FF43F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54243CC6-A384-4825-BDDC-DFF84A8FF7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2963" yWindow="4545" windowWidth="21599" windowHeight="12683" xr2:uid="{21973557-82B9-4C09-A6D8-FA0AD254FFD3}"/>
+    <workbookView xWindow="-25860" yWindow="2940" windowWidth="21600" windowHeight="11055" activeTab="2" xr2:uid="{21973557-82B9-4C09-A6D8-FA0AD254FFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure name" sheetId="1" r:id="rId1"/>
+    <sheet name="Structure name (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Structure name (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>Temperature</t>
   </si>
@@ -433,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506D19F1-8B99-41A8-A69A-25EEC2867016}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -456,4 +458,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB5F8DE-15F6-4960-AB7A-9E50AF0DD56B}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157E1697-9CCA-432B-83AA-3E9E692EA75F}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>